--- a/data/playoffs/playoff_history.xlsx
+++ b/data/playoffs/playoff_history.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bastit\Documents\fantasy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bastit\Documents\fantasy\fantasy_football\data\playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E095FF42-236B-4269-876C-17A0BCB48C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8410EE33-3A50-42BD-B405-7C2359F4354E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32310" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$673</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,19 +56,10 @@
     <t>made_playoffs</t>
   </si>
   <si>
-    <t>nwe</t>
-  </si>
-  <si>
     <t>East Champion</t>
   </si>
   <si>
-    <t>kan</t>
-  </si>
-  <si>
     <t>West Champion</t>
-  </si>
-  <si>
-    <t>clt</t>
   </si>
   <si>
     <t>South Champion</t>
@@ -64,19 +68,10 @@
     <t>head-to-head record</t>
   </si>
   <si>
-    <t>rav</t>
-  </si>
-  <si>
     <t>North Champion</t>
   </si>
   <si>
-    <t>oti</t>
-  </si>
-  <si>
     <t>Wild Card #1</t>
-  </si>
-  <si>
-    <t>den</t>
   </si>
   <si>
     <t>Wild Card #2</t>
@@ -85,97 +80,115 @@
     <t>conference win percentage</t>
   </si>
   <si>
-    <t>mia</t>
-  </si>
-  <si>
-    <t>cin</t>
-  </si>
-  <si>
-    <t>pit</t>
-  </si>
-  <si>
-    <t>buf</t>
-  </si>
-  <si>
     <t>division win percentage</t>
-  </si>
-  <si>
-    <t>nyj</t>
-  </si>
-  <si>
-    <t>jax</t>
   </si>
   <si>
     <t>win percentage in common games</t>
   </si>
   <si>
-    <t>cle</t>
-  </si>
-  <si>
-    <t>htx</t>
-  </si>
-  <si>
-    <t>rai</t>
-  </si>
-  <si>
-    <t>sdg</t>
-  </si>
-  <si>
-    <t>phi</t>
-  </si>
-  <si>
-    <t>ram</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>gnb</t>
-  </si>
-  <si>
-    <t>sea</t>
-  </si>
-  <si>
     <t>strength of victory</t>
-  </si>
-  <si>
-    <t>dal</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>nor</t>
-  </si>
-  <si>
-    <t>sfo</t>
-  </si>
-  <si>
-    <t>tam</t>
-  </si>
-  <si>
-    <t>chi</t>
-  </si>
-  <si>
-    <t>atl</t>
-  </si>
-  <si>
-    <t>det</t>
-  </si>
-  <si>
-    <t>was</t>
-  </si>
-  <si>
-    <t>nyg</t>
-  </si>
-  <si>
-    <t>crd</t>
   </si>
   <si>
     <t>division win percentage, conference win percentage</t>
   </si>
   <si>
     <t>Wild Card #3</t>
+  </si>
+  <si>
+    <t>NWE</t>
+  </si>
+  <si>
+    <t>KAN</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>RAV</t>
+  </si>
+  <si>
+    <t>OTI</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>PIT</t>
+  </si>
+  <si>
+    <t>BUF</t>
+  </si>
+  <si>
+    <t>NYJ</t>
+  </si>
+  <si>
+    <t>JAX</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>HTX</t>
+  </si>
+  <si>
+    <t>RAI</t>
+  </si>
+  <si>
+    <t>SDG</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>SFO</t>
+  </si>
+  <si>
+    <t>TAM</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>NYG</t>
+  </si>
+  <si>
+    <t>CRD</t>
   </si>
 </sst>
 </file>
@@ -552,7 +565,7 @@
   <dimension ref="A1:F673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,13 +603,13 @@
         <v>2003</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="2" t="b">
         <v>1</v>
@@ -607,13 +620,13 @@
         <v>2003</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="b">
         <v>1</v>
@@ -624,16 +637,16 @@
         <v>2003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>1</v>
@@ -644,13 +657,13 @@
         <v>2003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="b">
         <v>1</v>
@@ -661,13 +674,13 @@
         <v>2003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="b">
         <v>1</v>
@@ -678,16 +691,16 @@
         <v>2003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2" t="b">
         <v>1</v>
@@ -698,7 +711,7 @@
         <v>2003</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -712,7 +725,7 @@
         <v>2003</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
@@ -726,13 +739,13 @@
         <v>2003</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2" t="b">
         <v>0</v>
@@ -743,13 +756,13 @@
         <v>2003</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="b">
         <v>0</v>
@@ -760,7 +773,7 @@
         <v>2003</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>11</v>
@@ -774,13 +787,13 @@
         <v>2003</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="b">
         <v>0</v>
@@ -791,13 +804,13 @@
         <v>2003</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2" t="b">
         <v>0</v>
@@ -808,7 +821,7 @@
         <v>2003</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
@@ -822,13 +835,13 @@
         <v>2003</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="b">
         <v>0</v>
@@ -839,7 +852,7 @@
         <v>2003</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -853,16 +866,16 @@
         <v>2003</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2" t="b">
         <v>1</v>
@@ -873,13 +886,13 @@
         <v>2003</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" s="2" t="b">
         <v>1</v>
@@ -890,13 +903,13 @@
         <v>2003</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F20" s="2" t="b">
         <v>1</v>
@@ -907,13 +920,13 @@
         <v>2003</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2" t="b">
         <v>1</v>
@@ -924,16 +937,16 @@
         <v>2003</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F22" s="2" t="b">
         <v>1</v>
@@ -944,13 +957,13 @@
         <v>2003</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F23" s="2" t="b">
         <v>1</v>
@@ -961,7 +974,7 @@
         <v>2003</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2">
         <v>7</v>
@@ -975,7 +988,7 @@
         <v>2003</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2">
         <v>8</v>
@@ -989,13 +1002,13 @@
         <v>2003</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2">
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F26" s="2" t="b">
         <v>0</v>
@@ -1006,13 +1019,13 @@
         <v>2003</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2">
         <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F27" s="2" t="b">
         <v>0</v>
@@ -1023,7 +1036,7 @@
         <v>2003</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2">
         <v>11</v>
@@ -1037,13 +1050,13 @@
         <v>2003</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2">
         <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2" t="b">
         <v>0</v>
@@ -1054,13 +1067,13 @@
         <v>2003</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F30" s="2" t="b">
         <v>0</v>
@@ -1071,7 +1084,7 @@
         <v>2003</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" s="2">
         <v>14</v>
@@ -1085,13 +1098,13 @@
         <v>2003</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" s="2">
         <v>15</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F32" s="2" t="b">
         <v>0</v>
@@ -1102,7 +1115,7 @@
         <v>2003</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2">
         <v>16</v>
@@ -1116,13 +1129,13 @@
         <v>2004</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F34" s="2" t="b">
         <v>1</v>
@@ -1133,13 +1146,13 @@
         <v>2004</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2">
         <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" s="2" t="b">
         <v>1</v>
@@ -1150,16 +1163,16 @@
         <v>2004</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F36" s="2" t="b">
         <v>1</v>
@@ -1170,13 +1183,13 @@
         <v>2004</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2">
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F37" s="2" t="b">
         <v>1</v>
@@ -1187,16 +1200,16 @@
         <v>2004</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C38" s="2">
         <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F38" s="2" t="b">
         <v>1</v>
@@ -1207,13 +1220,13 @@
         <v>2004</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C39" s="2">
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F39" s="2" t="b">
         <v>1</v>
@@ -1224,13 +1237,13 @@
         <v>2004</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C40" s="2">
         <v>7</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F40" s="2" t="b">
         <v>0</v>
@@ -1241,13 +1254,13 @@
         <v>2004</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2">
         <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F41" s="2" t="b">
         <v>0</v>
@@ -1258,7 +1271,7 @@
         <v>2004</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C42" s="2">
         <v>9</v>
@@ -1272,7 +1285,7 @@
         <v>2004</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C43" s="2">
         <v>10</v>
@@ -1286,13 +1299,13 @@
         <v>2004</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C44" s="2">
         <v>11</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F44" s="2" t="b">
         <v>0</v>
@@ -1303,7 +1316,7 @@
         <v>2004</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C45" s="2">
         <v>12</v>
@@ -1317,13 +1330,13 @@
         <v>2004</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C46" s="2">
         <v>13</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F46" s="2" t="b">
         <v>0</v>
@@ -1334,7 +1347,7 @@
         <v>2004</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C47" s="2">
         <v>14</v>
@@ -1348,13 +1361,13 @@
         <v>2004</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C48" s="2">
         <v>15</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F48" s="2" t="b">
         <v>0</v>
@@ -1365,7 +1378,7 @@
         <v>2004</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C49" s="2">
         <v>16</v>
@@ -1379,13 +1392,13 @@
         <v>2004</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" s="2" t="b">
         <v>1</v>
@@ -1396,13 +1409,13 @@
         <v>2004</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2">
         <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F51" s="2" t="b">
         <v>1</v>
@@ -1413,13 +1426,13 @@
         <v>2004</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C52" s="2">
         <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F52" s="2" t="b">
         <v>1</v>
@@ -1430,13 +1443,13 @@
         <v>2004</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2">
         <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F53" s="2" t="b">
         <v>1</v>
@@ -1447,16 +1460,16 @@
         <v>2004</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C54" s="2">
         <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F54" s="2" t="b">
         <v>1</v>
@@ -1467,16 +1480,16 @@
         <v>2004</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C55" s="2">
         <v>6</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F55" s="2" t="b">
         <v>1</v>
@@ -1487,7 +1500,7 @@
         <v>2004</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C56" s="2">
         <v>7</v>
@@ -1501,7 +1514,7 @@
         <v>2004</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C57" s="2">
         <v>8</v>
@@ -1515,13 +1528,13 @@
         <v>2004</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2">
         <v>9</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F58" s="2" t="b">
         <v>0</v>
@@ -1532,13 +1545,13 @@
         <v>2004</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C59" s="2">
         <v>10</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F59" s="2" t="b">
         <v>0</v>
@@ -1549,13 +1562,13 @@
         <v>2004</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C60" s="2">
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F60" s="2" t="b">
         <v>0</v>
@@ -1566,13 +1579,13 @@
         <v>2004</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C61" s="2">
         <v>12</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F61" s="2" t="b">
         <v>0</v>
@@ -1583,7 +1596,7 @@
         <v>2004</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C62" s="2">
         <v>13</v>
@@ -1597,13 +1610,13 @@
         <v>2004</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C63" s="2">
         <v>14</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F63" s="2" t="b">
         <v>0</v>
@@ -1614,7 +1627,7 @@
         <v>2004</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2">
         <v>15</v>
@@ -1628,7 +1641,7 @@
         <v>2004</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2">
         <v>16</v>
@@ -1642,13 +1655,13 @@
         <v>2005</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F66" s="2" t="b">
         <v>1</v>
@@ -1659,13 +1672,13 @@
         <v>2005</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C67" s="2">
         <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F67" s="2" t="b">
         <v>1</v>
@@ -1676,16 +1689,16 @@
         <v>2005</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C68" s="2">
         <v>3</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F68" s="2" t="b">
         <v>1</v>
@@ -1696,13 +1709,13 @@
         <v>2005</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C69" s="2">
         <v>4</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" s="2" t="b">
         <v>1</v>
@@ -1713,13 +1726,13 @@
         <v>2005</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C70" s="2">
         <v>5</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F70" s="2" t="b">
         <v>1</v>
@@ -1730,13 +1743,13 @@
         <v>2005</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C71" s="2">
         <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F71" s="2" t="b">
         <v>1</v>
@@ -1747,7 +1760,7 @@
         <v>2005</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C72" s="2">
         <v>7</v>
@@ -1761,13 +1774,13 @@
         <v>2005</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C73" s="2">
         <v>8</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F73" s="2" t="b">
         <v>0</v>
@@ -1778,7 +1791,7 @@
         <v>2005</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C74" s="2">
         <v>9</v>
@@ -1792,13 +1805,13 @@
         <v>2005</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C75" s="2">
         <v>10</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F75" s="2" t="b">
         <v>0</v>
@@ -1809,7 +1822,7 @@
         <v>2005</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C76" s="2">
         <v>11</v>
@@ -1823,7 +1836,7 @@
         <v>2005</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C77" s="2">
         <v>12</v>
@@ -1837,13 +1850,13 @@
         <v>2005</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C78" s="2">
         <v>13</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F78" s="2" t="b">
         <v>0</v>
@@ -1854,13 +1867,13 @@
         <v>2005</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C79" s="2">
         <v>14</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F79" s="2" t="b">
         <v>0</v>
@@ -1871,7 +1884,7 @@
         <v>2005</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C80" s="2">
         <v>15</v>
@@ -1885,7 +1898,7 @@
         <v>2005</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C81" s="2">
         <v>16</v>
@@ -1899,13 +1912,13 @@
         <v>2005</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F82" s="2" t="b">
         <v>1</v>
@@ -1916,16 +1929,16 @@
         <v>2005</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C83" s="2">
         <v>2</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F83" s="2" t="b">
         <v>1</v>
@@ -1936,16 +1949,16 @@
         <v>2005</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C84" s="2">
         <v>3</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F84" s="2" t="b">
         <v>1</v>
@@ -1956,13 +1969,13 @@
         <v>2005</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2">
         <v>4</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" s="2" t="b">
         <v>1</v>
@@ -1973,13 +1986,13 @@
         <v>2005</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C86" s="2">
         <v>5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F86" s="2" t="b">
         <v>1</v>
@@ -1990,13 +2003,13 @@
         <v>2005</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C87" s="2">
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F87" s="2" t="b">
         <v>1</v>
@@ -2007,13 +2020,13 @@
         <v>2005</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C88" s="2">
         <v>7</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F88" s="2" t="b">
         <v>0</v>
@@ -2024,7 +2037,7 @@
         <v>2005</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C89" s="2">
         <v>8</v>
@@ -2038,7 +2051,7 @@
         <v>2005</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C90" s="2">
         <v>9</v>
@@ -2052,13 +2065,13 @@
         <v>2005</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C91" s="2">
         <v>10</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F91" s="2" t="b">
         <v>0</v>
@@ -2069,7 +2082,7 @@
         <v>2005</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C92" s="2">
         <v>11</v>
@@ -2083,13 +2096,13 @@
         <v>2005</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C93" s="2">
         <v>12</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F93" s="2" t="b">
         <v>0</v>
@@ -2100,7 +2113,7 @@
         <v>2005</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C94" s="2">
         <v>13</v>
@@ -2114,13 +2127,13 @@
         <v>2005</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C95" s="2">
         <v>14</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F95" s="2" t="b">
         <v>0</v>
@@ -2131,7 +2144,7 @@
         <v>2005</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C96" s="2">
         <v>15</v>
@@ -2145,7 +2158,7 @@
         <v>2005</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C97" s="2">
         <v>16</v>
@@ -2159,13 +2172,13 @@
         <v>2006</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C98" s="2">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F98" s="2" t="b">
         <v>1</v>
@@ -2176,13 +2189,13 @@
         <v>2006</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C99" s="2">
         <v>2</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F99" s="2" t="b">
         <v>1</v>
@@ -2193,16 +2206,16 @@
         <v>2006</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C100" s="2">
         <v>3</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F100" s="2" t="b">
         <v>1</v>
@@ -2213,13 +2226,13 @@
         <v>2006</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C101" s="2">
         <v>4</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F101" s="2" t="b">
         <v>1</v>
@@ -2230,13 +2243,13 @@
         <v>2006</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C102" s="2">
         <v>5</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F102" s="2" t="b">
         <v>1</v>
@@ -2247,16 +2260,16 @@
         <v>2006</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C103" s="2">
         <v>6</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F103" s="2" t="b">
         <v>1</v>
@@ -2267,7 +2280,7 @@
         <v>2006</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C104" s="2">
         <v>7</v>
@@ -2281,13 +2294,13 @@
         <v>2006</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C105" s="2">
         <v>8</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F105" s="2" t="b">
         <v>0</v>
@@ -2298,13 +2311,13 @@
         <v>2006</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C106" s="2">
         <v>9</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F106" s="2" t="b">
         <v>0</v>
@@ -2315,13 +2328,13 @@
         <v>2006</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C107" s="2">
         <v>10</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F107" s="2" t="b">
         <v>0</v>
@@ -2332,7 +2345,7 @@
         <v>2006</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C108" s="2">
         <v>11</v>
@@ -2346,7 +2359,7 @@
         <v>2006</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C109" s="2">
         <v>12</v>
@@ -2360,13 +2373,13 @@
         <v>2006</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C110" s="2">
         <v>13</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F110" s="2" t="b">
         <v>0</v>
@@ -2377,7 +2390,7 @@
         <v>2006</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C111" s="2">
         <v>14</v>
@@ -2391,7 +2404,7 @@
         <v>2006</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C112" s="2">
         <v>15</v>
@@ -2405,7 +2418,7 @@
         <v>2006</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C113" s="2">
         <v>16</v>
@@ -2419,13 +2432,13 @@
         <v>2006</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C114" s="2">
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F114" s="2" t="b">
         <v>1</v>
@@ -2436,16 +2449,16 @@
         <v>2006</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C115" s="2">
         <v>2</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F115" s="2" t="b">
         <v>1</v>
@@ -2456,13 +2469,13 @@
         <v>2006</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C116" s="2">
         <v>3</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F116" s="2" t="b">
         <v>1</v>
@@ -2473,13 +2486,13 @@
         <v>2006</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C117" s="2">
         <v>4</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F117" s="2" t="b">
         <v>1</v>
@@ -2490,13 +2503,13 @@
         <v>2006</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C118" s="2">
         <v>5</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F118" s="2" t="b">
         <v>1</v>
@@ -2507,16 +2520,16 @@
         <v>2006</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C119" s="2">
         <v>6</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F119" s="2" t="b">
         <v>1</v>
@@ -2527,13 +2540,13 @@
         <v>2006</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C120" s="2">
         <v>7</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F120" s="2" t="b">
         <v>0</v>
@@ -2544,13 +2557,13 @@
         <v>2006</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C121" s="2">
         <v>8</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F121" s="2" t="b">
         <v>0</v>
@@ -2561,7 +2574,7 @@
         <v>2006</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C122" s="2">
         <v>9</v>
@@ -2575,13 +2588,13 @@
         <v>2006</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C123" s="2">
         <v>10</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F123" s="2" t="b">
         <v>0</v>
@@ -2592,7 +2605,7 @@
         <v>2006</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C124" s="2">
         <v>11</v>
@@ -2606,7 +2619,7 @@
         <v>2006</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C125" s="2">
         <v>12</v>
@@ -2620,13 +2633,13 @@
         <v>2006</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C126" s="2">
         <v>13</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F126" s="2" t="b">
         <v>0</v>
@@ -2637,7 +2650,7 @@
         <v>2006</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C127" s="2">
         <v>14</v>
@@ -2651,7 +2664,7 @@
         <v>2006</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C128" s="2">
         <v>15</v>
@@ -2665,7 +2678,7 @@
         <v>2006</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C129" s="2">
         <v>16</v>
@@ -2679,13 +2692,13 @@
         <v>2007</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="2">
+        <v>1</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C130" s="2">
-        <v>1</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F130" s="2" t="b">
         <v>1</v>
@@ -2696,13 +2709,13 @@
         <v>2007</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C131" s="2">
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F131" s="2" t="b">
         <v>1</v>
@@ -2713,13 +2726,13 @@
         <v>2007</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C132" s="2">
         <v>3</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F132" s="2" t="b">
         <v>1</v>
@@ -2730,16 +2743,16 @@
         <v>2007</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C133" s="2">
         <v>4</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F133" s="2" t="b">
         <v>1</v>
@@ -2750,13 +2763,13 @@
         <v>2007</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C134" s="2">
         <v>5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F134" s="2" t="b">
         <v>1</v>
@@ -2767,16 +2780,16 @@
         <v>2007</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C135" s="2">
         <v>6</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F135" s="2" t="b">
         <v>1</v>
@@ -2787,7 +2800,7 @@
         <v>2007</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C136" s="2">
         <v>7</v>
@@ -2801,7 +2814,7 @@
         <v>2007</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C137" s="2">
         <v>8</v>
@@ -2815,13 +2828,13 @@
         <v>2007</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C138" s="2">
         <v>9</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F138" s="2" t="b">
         <v>0</v>
@@ -2832,13 +2845,13 @@
         <v>2007</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C139" s="2">
         <v>10</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F139" s="2" t="b">
         <v>0</v>
@@ -2849,7 +2862,7 @@
         <v>2007</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C140" s="2">
         <v>11</v>
@@ -2863,7 +2876,7 @@
         <v>2007</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C141" s="2">
         <v>12</v>
@@ -2877,13 +2890,13 @@
         <v>2007</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C142" s="2">
         <v>13</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F142" s="2" t="b">
         <v>0</v>
@@ -2894,13 +2907,13 @@
         <v>2007</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C143" s="2">
         <v>14</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F143" s="2" t="b">
         <v>0</v>
@@ -2911,7 +2924,7 @@
         <v>2007</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C144" s="2">
         <v>15</v>
@@ -2925,7 +2938,7 @@
         <v>2007</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C145" s="2">
         <v>16</v>
@@ -2939,16 +2952,16 @@
         <v>2007</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C146" s="2">
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F146" s="2" t="b">
         <v>1</v>
@@ -2959,13 +2972,13 @@
         <v>2007</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C147" s="2">
         <v>2</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F147" s="2" t="b">
         <v>1</v>
@@ -2976,13 +2989,13 @@
         <v>2007</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C148" s="2">
         <v>3</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F148" s="2" t="b">
         <v>1</v>
@@ -2993,13 +3006,13 @@
         <v>2007</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C149" s="2">
         <v>4</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F149" s="2" t="b">
         <v>1</v>
@@ -3010,13 +3023,13 @@
         <v>2007</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C150" s="2">
         <v>5</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F150" s="2" t="b">
         <v>1</v>
@@ -3027,13 +3040,13 @@
         <v>2007</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C151" s="2">
         <v>6</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F151" s="2" t="b">
         <v>1</v>
@@ -3044,13 +3057,13 @@
         <v>2007</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C152" s="2">
         <v>7</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F152" s="2" t="b">
         <v>0</v>
@@ -3061,13 +3074,13 @@
         <v>2007</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C153" s="2">
         <v>8</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F153" s="2" t="b">
         <v>0</v>
@@ -3078,7 +3091,7 @@
         <v>2007</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C154" s="2">
         <v>9</v>
@@ -3092,13 +3105,13 @@
         <v>2007</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C155" s="2">
         <v>10</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F155" s="2" t="b">
         <v>0</v>
@@ -3109,13 +3122,13 @@
         <v>2007</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C156" s="2">
         <v>11</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F156" s="2" t="b">
         <v>0</v>
@@ -3126,13 +3139,13 @@
         <v>2007</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C157" s="2">
         <v>12</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F157" s="2" t="b">
         <v>0</v>
@@ -3143,7 +3156,7 @@
         <v>2007</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C158" s="2">
         <v>13</v>
@@ -3157,7 +3170,7 @@
         <v>2007</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C159" s="2">
         <v>14</v>
@@ -3171,7 +3184,7 @@
         <v>2007</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C160" s="2">
         <v>15</v>
@@ -3185,7 +3198,7 @@
         <v>2007</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C161" s="2">
         <v>16</v>
@@ -3199,13 +3212,13 @@
         <v>2008</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C162" s="2">
         <v>1</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F162" s="2" t="b">
         <v>1</v>
@@ -3216,13 +3229,13 @@
         <v>2008</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C163" s="2">
         <v>2</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F163" s="2" t="b">
         <v>1</v>
@@ -3233,16 +3246,16 @@
         <v>2008</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C164" s="2">
         <v>3</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F164" s="2" t="b">
         <v>1</v>
@@ -3253,16 +3266,16 @@
         <v>2008</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C165" s="2">
         <v>4</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F165" s="2" t="b">
         <v>1</v>
@@ -3273,13 +3286,13 @@
         <v>2008</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C166" s="2">
         <v>5</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F166" s="2" t="b">
         <v>1</v>
@@ -3290,16 +3303,16 @@
         <v>2008</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C167" s="2">
         <v>6</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F167" s="2" t="b">
         <v>1</v>
@@ -3310,7 +3323,7 @@
         <v>2008</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C168" s="2">
         <v>7</v>
@@ -3324,7 +3337,7 @@
         <v>2008</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C169" s="2">
         <v>8</v>
@@ -3338,13 +3351,13 @@
         <v>2008</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C170" s="2">
         <v>9</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F170" s="2" t="b">
         <v>0</v>
@@ -3355,7 +3368,7 @@
         <v>2008</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C171" s="2">
         <v>10</v>
@@ -3369,7 +3382,7 @@
         <v>2008</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C172" s="2">
         <v>11</v>
@@ -3383,13 +3396,13 @@
         <v>2008</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C173" s="2">
         <v>12</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F173" s="2" t="b">
         <v>0</v>
@@ -3400,7 +3413,7 @@
         <v>2008</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C174" s="2">
         <v>13</v>
@@ -3414,7 +3427,7 @@
         <v>2008</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C175" s="2">
         <v>14</v>
@@ -3428,7 +3441,7 @@
         <v>2008</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C176" s="2">
         <v>15</v>
@@ -3442,7 +3455,7 @@
         <v>2008</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C177" s="2">
         <v>16</v>
@@ -3456,16 +3469,16 @@
         <v>2008</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C178" s="2">
         <v>1</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F178" s="2" t="b">
         <v>1</v>
@@ -3476,13 +3489,13 @@
         <v>2008</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C179" s="2">
         <v>2</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F179" s="2" t="b">
         <v>1</v>
@@ -3493,13 +3506,13 @@
         <v>2008</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C180" s="2">
         <v>3</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F180" s="2" t="b">
         <v>1</v>
@@ -3510,13 +3523,13 @@
         <v>2008</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C181" s="2">
         <v>4</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F181" s="2" t="b">
         <v>1</v>
@@ -3527,13 +3540,13 @@
         <v>2008</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C182" s="2">
         <v>5</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F182" s="2" t="b">
         <v>1</v>
@@ -3544,13 +3557,13 @@
         <v>2008</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C183" s="2">
         <v>6</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F183" s="2" t="b">
         <v>1</v>
@@ -3561,13 +3574,13 @@
         <v>2008</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C184" s="2">
         <v>7</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F184" s="2" t="b">
         <v>0</v>
@@ -3578,13 +3591,13 @@
         <v>2008</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C185" s="2">
         <v>8</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F185" s="2" t="b">
         <v>0</v>
@@ -3595,7 +3608,7 @@
         <v>2008</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C186" s="2">
         <v>9</v>
@@ -3609,13 +3622,13 @@
         <v>2008</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C187" s="2">
         <v>10</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F187" s="2" t="b">
         <v>0</v>
@@ -3626,7 +3639,7 @@
         <v>2008</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C188" s="2">
         <v>11</v>
@@ -3640,7 +3653,7 @@
         <v>2008</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C189" s="2">
         <v>12</v>
@@ -3654,7 +3667,7 @@
         <v>2008</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C190" s="2">
         <v>13</v>
@@ -3668,7 +3681,7 @@
         <v>2008</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C191" s="2">
         <v>14</v>
@@ -3682,7 +3695,7 @@
         <v>2008</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C192" s="2">
         <v>15</v>
@@ -3696,7 +3709,7 @@
         <v>2008</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C193" s="2">
         <v>16</v>
@@ -3710,13 +3723,13 @@
         <v>2009</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C194" s="2">
         <v>1</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F194" s="2" t="b">
         <v>1</v>
@@ -3727,13 +3740,13 @@
         <v>2009</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C195" s="2">
         <v>2</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F195" s="2" t="b">
         <v>1</v>
@@ -3744,16 +3757,16 @@
         <v>2009</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C196" s="2">
         <v>3</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F196" s="2" t="b">
         <v>1</v>
@@ -3764,13 +3777,13 @@
         <v>2009</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C197" s="2">
         <v>4</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F197" s="2" t="b">
         <v>1</v>
@@ -3781,16 +3794,16 @@
         <v>2009</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C198" s="2">
         <v>5</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F198" s="2" t="b">
         <v>1</v>
@@ -3801,16 +3814,16 @@
         <v>2009</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C199" s="2">
         <v>6</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F199" s="2" t="b">
         <v>1</v>
@@ -3821,13 +3834,13 @@
         <v>2009</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C200" s="2">
         <v>7</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F200" s="2" t="b">
         <v>0</v>
@@ -3838,7 +3851,7 @@
         <v>2009</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C201" s="2">
         <v>8</v>
@@ -3852,13 +3865,13 @@
         <v>2009</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C202" s="2">
         <v>9</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F202" s="2" t="b">
         <v>0</v>
@@ -3869,7 +3882,7 @@
         <v>2009</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C203" s="2">
         <v>10</v>
@@ -3883,13 +3896,13 @@
         <v>2009</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C204" s="2">
         <v>11</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F204" s="2" t="b">
         <v>0</v>
@@ -3900,7 +3913,7 @@
         <v>2009</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C205" s="2">
         <v>12</v>
@@ -3914,7 +3927,7 @@
         <v>2009</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C206" s="2">
         <v>13</v>
@@ -3928,13 +3941,13 @@
         <v>2009</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C207" s="2">
         <v>14</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F207" s="2" t="b">
         <v>0</v>
@@ -3945,7 +3958,7 @@
         <v>2009</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C208" s="2">
         <v>15</v>
@@ -3959,7 +3972,7 @@
         <v>2009</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C209" s="2">
         <v>16</v>
@@ -3973,13 +3986,13 @@
         <v>2009</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C210" s="2">
         <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F210" s="2" t="b">
         <v>1</v>
@@ -3990,13 +4003,13 @@
         <v>2009</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C211" s="2">
         <v>2</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F211" s="2" t="b">
         <v>1</v>
@@ -4007,16 +4020,16 @@
         <v>2009</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C212" s="2">
         <v>3</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F212" s="2" t="b">
         <v>1</v>
@@ -4027,13 +4040,13 @@
         <v>2009</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C213" s="2">
         <v>4</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F213" s="2" t="b">
         <v>1</v>
@@ -4044,16 +4057,16 @@
         <v>2009</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C214" s="2">
         <v>5</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F214" s="2" t="b">
         <v>1</v>
@@ -4064,13 +4077,13 @@
         <v>2009</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C215" s="2">
         <v>6</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F215" s="2" t="b">
         <v>1</v>
@@ -4081,7 +4094,7 @@
         <v>2009</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C216" s="2">
         <v>7</v>
@@ -4095,13 +4108,13 @@
         <v>2009</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C217" s="2">
         <v>8</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F217" s="2" t="b">
         <v>0</v>
@@ -4112,13 +4125,13 @@
         <v>2009</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C218" s="2">
         <v>9</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F218" s="2" t="b">
         <v>0</v>
@@ -4129,7 +4142,7 @@
         <v>2009</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C219" s="2">
         <v>10</v>
@@ -4143,7 +4156,7 @@
         <v>2009</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C220" s="2">
         <v>11</v>
@@ -4157,7 +4170,7 @@
         <v>2009</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C221" s="2">
         <v>12</v>
@@ -4171,7 +4184,7 @@
         <v>2009</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C222" s="2">
         <v>13</v>
@@ -4185,7 +4198,7 @@
         <v>2009</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C223" s="2">
         <v>14</v>
@@ -4199,7 +4212,7 @@
         <v>2009</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C224" s="2">
         <v>15</v>
@@ -4213,7 +4226,7 @@
         <v>2009</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C225" s="2">
         <v>16</v>
@@ -4227,13 +4240,13 @@
         <v>2010</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C226" s="2">
+        <v>1</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C226" s="2">
-        <v>1</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F226" s="2" t="b">
         <v>1</v>
@@ -4244,16 +4257,16 @@
         <v>2010</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C227" s="2">
         <v>2</v>
       </c>
       <c r="D227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F227" s="2" t="b">
         <v>1</v>
@@ -4264,16 +4277,16 @@
         <v>2010</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C228" s="2">
         <v>3</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F228" s="2" t="b">
         <v>1</v>
@@ -4284,13 +4297,13 @@
         <v>2010</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C229" s="2">
         <v>4</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F229" s="2" t="b">
         <v>1</v>
@@ -4301,13 +4314,13 @@
         <v>2010</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C230" s="2">
         <v>5</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F230" s="2" t="b">
         <v>1</v>
@@ -4318,13 +4331,13 @@
         <v>2010</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C231" s="2">
         <v>6</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F231" s="2" t="b">
         <v>1</v>
@@ -4335,7 +4348,7 @@
         <v>2010</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C232" s="2">
         <v>7</v>
@@ -4349,13 +4362,13 @@
         <v>2010</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C233" s="2">
         <v>8</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F233" s="2" t="b">
         <v>0</v>
@@ -4366,7 +4379,7 @@
         <v>2010</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C234" s="2">
         <v>9</v>
@@ -4380,7 +4393,7 @@
         <v>2010</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C235" s="2">
         <v>10</v>
@@ -4394,13 +4407,13 @@
         <v>2010</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C236" s="2">
         <v>11</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F236" s="2" t="b">
         <v>0</v>
@@ -4411,7 +4424,7 @@
         <v>2010</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C237" s="2">
         <v>12</v>
@@ -4425,7 +4438,7 @@
         <v>2010</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C238" s="2">
         <v>13</v>
@@ -4439,13 +4452,13 @@
         <v>2010</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C239" s="2">
         <v>14</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F239" s="2" t="b">
         <v>0</v>
@@ -4456,13 +4469,13 @@
         <v>2010</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C240" s="2">
         <v>15</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F240" s="2" t="b">
         <v>0</v>
@@ -4473,7 +4486,7 @@
         <v>2010</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C241" s="2">
         <v>16</v>
@@ -4487,13 +4500,13 @@
         <v>2010</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C242" s="2">
         <v>1</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F242" s="2" t="b">
         <v>1</v>
@@ -4504,13 +4517,13 @@
         <v>2010</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C243" s="2">
         <v>2</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F243" s="2" t="b">
         <v>1</v>
@@ -4521,16 +4534,16 @@
         <v>2010</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C244" s="2">
         <v>3</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F244" s="2" t="b">
         <v>1</v>
@@ -4541,16 +4554,16 @@
         <v>2010</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C245" s="2">
         <v>4</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F245" s="2" t="b">
         <v>1</v>
@@ -4561,13 +4574,13 @@
         <v>2010</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C246" s="2">
         <v>5</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F246" s="2" t="b">
         <v>1</v>
@@ -4578,16 +4591,16 @@
         <v>2010</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C247" s="2">
         <v>6</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F247" s="2" t="b">
         <v>1</v>
@@ -4598,13 +4611,13 @@
         <v>2010</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C248" s="2">
         <v>7</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F248" s="2" t="b">
         <v>0</v>
@@ -4615,7 +4628,7 @@
         <v>2010</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C249" s="2">
         <v>8</v>
@@ -4629,7 +4642,7 @@
         <v>2010</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C250" s="2">
         <v>9</v>
@@ -4643,13 +4656,13 @@
         <v>2010</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C251" s="2">
         <v>10</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F251" s="2" t="b">
         <v>0</v>
@@ -4660,13 +4673,13 @@
         <v>2010</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C252" s="2">
         <v>11</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F252" s="2" t="b">
         <v>0</v>
@@ -4677,13 +4690,13 @@
         <v>2010</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C253" s="2">
         <v>12</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F253" s="2" t="b">
         <v>0</v>
@@ -4694,13 +4707,13 @@
         <v>2010</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C254" s="2">
         <v>13</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F254" s="2" t="b">
         <v>0</v>
@@ -4711,7 +4724,7 @@
         <v>2010</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C255" s="2">
         <v>14</v>
@@ -4725,7 +4738,7 @@
         <v>2010</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C256" s="2">
         <v>15</v>
@@ -4739,7 +4752,7 @@
         <v>2010</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C257" s="2">
         <v>16</v>
@@ -4753,13 +4766,13 @@
         <v>2011</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C258" s="2">
+        <v>1</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C258" s="2">
-        <v>1</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F258" s="2" t="b">
         <v>1</v>
@@ -4770,16 +4783,16 @@
         <v>2011</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C259" s="2">
         <v>2</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F259" s="2" t="b">
         <v>1</v>
@@ -4790,13 +4803,13 @@
         <v>2011</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C260" s="2">
         <v>3</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F260" s="2" t="b">
         <v>1</v>
@@ -4807,16 +4820,16 @@
         <v>2011</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C261" s="2">
         <v>4</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F261" s="2" t="b">
         <v>1</v>
@@ -4827,13 +4840,13 @@
         <v>2011</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C262" s="2">
         <v>5</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F262" s="2" t="b">
         <v>1</v>
@@ -4844,16 +4857,16 @@
         <v>2011</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C263" s="2">
         <v>6</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F263" s="2" t="b">
         <v>1</v>
@@ -4864,7 +4877,7 @@
         <v>2011</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C264" s="2">
         <v>7</v>
@@ -4878,13 +4891,13 @@
         <v>2011</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C265" s="2">
         <v>8</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F265" s="2" t="b">
         <v>0</v>
@@ -4895,13 +4908,13 @@
         <v>2011</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C266" s="2">
         <v>9</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F266" s="2" t="b">
         <v>0</v>
@@ -4912,7 +4925,7 @@
         <v>2011</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C267" s="2">
         <v>10</v>
@@ -4926,7 +4939,7 @@
         <v>2011</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C268" s="2">
         <v>11</v>
@@ -4940,13 +4953,13 @@
         <v>2011</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C269" s="2">
         <v>12</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F269" s="2" t="b">
         <v>0</v>
@@ -4957,7 +4970,7 @@
         <v>2011</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C270" s="2">
         <v>13</v>
@@ -4971,7 +4984,7 @@
         <v>2011</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C271" s="2">
         <v>14</v>
@@ -4985,7 +4998,7 @@
         <v>2011</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C272" s="2">
         <v>15</v>
@@ -4999,7 +5012,7 @@
         <v>2011</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C273" s="2">
         <v>16</v>
@@ -5013,13 +5026,13 @@
         <v>2011</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C274" s="2">
         <v>1</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F274" s="2" t="b">
         <v>1</v>
@@ -5030,16 +5043,16 @@
         <v>2011</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C275" s="2">
         <v>2</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F275" s="2" t="b">
         <v>1</v>
@@ -5050,13 +5063,13 @@
         <v>2011</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C276" s="2">
         <v>3</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F276" s="2" t="b">
         <v>1</v>
@@ -5067,13 +5080,13 @@
         <v>2011</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C277" s="2">
         <v>4</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F277" s="2" t="b">
         <v>1</v>
@@ -5084,16 +5097,16 @@
         <v>2011</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C278" s="2">
         <v>5</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F278" s="2" t="b">
         <v>1</v>
@@ -5104,13 +5117,13 @@
         <v>2011</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C279" s="2">
         <v>6</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F279" s="2" t="b">
         <v>1</v>
@@ -5121,13 +5134,13 @@
         <v>2011</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C280" s="2">
         <v>7</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F280" s="2" t="b">
         <v>0</v>
@@ -5138,13 +5151,13 @@
         <v>2011</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C281" s="2">
         <v>8</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F281" s="2" t="b">
         <v>0</v>
@@ -5155,13 +5168,13 @@
         <v>2011</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C282" s="2">
         <v>9</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F282" s="2" t="b">
         <v>0</v>
@@ -5172,7 +5185,7 @@
         <v>2011</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C283" s="2">
         <v>10</v>
@@ -5186,7 +5199,7 @@
         <v>2011</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C284" s="2">
         <v>11</v>
@@ -5200,7 +5213,7 @@
         <v>2011</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C285" s="2">
         <v>12</v>
@@ -5214,7 +5227,7 @@
         <v>2011</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C286" s="2">
         <v>13</v>
@@ -5228,7 +5241,7 @@
         <v>2011</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C287" s="2">
         <v>14</v>
@@ -5242,7 +5255,7 @@
         <v>2011</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C288" s="2">
         <v>15</v>
@@ -5256,7 +5269,7 @@
         <v>2011</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C289" s="2">
         <v>16</v>
@@ -5270,13 +5283,13 @@
         <v>2012</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C290" s="2">
         <v>1</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F290" s="2" t="b">
         <v>1</v>
@@ -5287,16 +5300,16 @@
         <v>2012</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C291" s="2">
         <v>2</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F291" s="2" t="b">
         <v>1</v>
@@ -5307,13 +5320,13 @@
         <v>2012</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C292" s="2">
         <v>3</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F292" s="2" t="b">
         <v>1</v>
@@ -5324,16 +5337,16 @@
         <v>2012</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C293" s="2">
         <v>4</v>
       </c>
       <c r="D293" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E293" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E293" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F293" s="2" t="b">
         <v>1</v>
@@ -5344,13 +5357,13 @@
         <v>2012</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C294" s="2">
         <v>5</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F294" s="2" t="b">
         <v>1</v>
@@ -5361,13 +5374,13 @@
         <v>2012</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C295" s="2">
         <v>6</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F295" s="2" t="b">
         <v>1</v>
@@ -5378,7 +5391,7 @@
         <v>2012</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C296" s="2">
         <v>7</v>
@@ -5392,13 +5405,13 @@
         <v>2012</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C297" s="2">
         <v>8</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F297" s="2" t="b">
         <v>0</v>
@@ -5409,7 +5422,7 @@
         <v>2012</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C298" s="2">
         <v>9</v>
@@ -5423,13 +5436,13 @@
         <v>2012</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C299" s="2">
         <v>10</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F299" s="2" t="b">
         <v>0</v>
@@ -5440,13 +5453,13 @@
         <v>2012</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C300" s="2">
         <v>11</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F300" s="2" t="b">
         <v>0</v>
@@ -5457,7 +5470,7 @@
         <v>2012</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C301" s="2">
         <v>12</v>
@@ -5471,7 +5484,7 @@
         <v>2012</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C302" s="2">
         <v>13</v>
@@ -5485,7 +5498,7 @@
         <v>2012</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C303" s="2">
         <v>14</v>
@@ -5499,13 +5512,13 @@
         <v>2012</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C304" s="2">
         <v>15</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F304" s="2" t="b">
         <v>0</v>
@@ -5516,7 +5529,7 @@
         <v>2012</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C305" s="2">
         <v>16</v>
@@ -5530,13 +5543,13 @@
         <v>2012</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C306" s="2">
         <v>1</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F306" s="2" t="b">
         <v>1</v>
@@ -5547,13 +5560,13 @@
         <v>2012</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C307" s="2">
         <v>2</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F307" s="2" t="b">
         <v>1</v>
@@ -5564,13 +5577,13 @@
         <v>2012</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C308" s="2">
         <v>3</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F308" s="2" t="b">
         <v>1</v>
@@ -5581,13 +5594,13 @@
         <v>2012</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C309" s="2">
         <v>4</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F309" s="2" t="b">
         <v>1</v>
@@ -5598,13 +5611,13 @@
         <v>2012</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C310" s="2">
         <v>5</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F310" s="2" t="b">
         <v>1</v>
@@ -5615,16 +5628,16 @@
         <v>2012</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C311" s="2">
         <v>6</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F311" s="2" t="b">
         <v>1</v>
@@ -5635,7 +5648,7 @@
         <v>2012</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C312" s="2">
         <v>7</v>
@@ -5649,7 +5662,7 @@
         <v>2012</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C313" s="2">
         <v>8</v>
@@ -5663,7 +5676,7 @@
         <v>2012</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C314" s="2">
         <v>9</v>
@@ -5677,7 +5690,7 @@
         <v>2012</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C315" s="2">
         <v>10</v>
@@ -5691,13 +5704,13 @@
         <v>2012</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C316" s="2">
         <v>11</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F316" s="2" t="b">
         <v>0</v>
@@ -5708,13 +5721,13 @@
         <v>2012</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C317" s="2">
         <v>12</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F317" s="2" t="b">
         <v>0</v>
@@ -5725,7 +5738,7 @@
         <v>2012</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C318" s="2">
         <v>13</v>
@@ -5739,7 +5752,7 @@
         <v>2012</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C319" s="2">
         <v>14</v>
@@ -5753,13 +5766,13 @@
         <v>2012</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C320" s="2">
         <v>15</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F320" s="2" t="b">
         <v>0</v>
@@ -5770,7 +5783,7 @@
         <v>2012</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C321" s="2">
         <v>16</v>
@@ -5784,13 +5797,13 @@
         <v>2013</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C322" s="2">
         <v>1</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F322" s="2" t="b">
         <v>1</v>
@@ -5801,13 +5814,13 @@
         <v>2013</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C323" s="2">
         <v>2</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F323" s="2" t="b">
         <v>1</v>
@@ -5818,16 +5831,16 @@
         <v>2013</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C324" s="2">
         <v>3</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F324" s="2" t="b">
         <v>1</v>
@@ -5838,13 +5851,13 @@
         <v>2013</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C325" s="2">
         <v>4</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F325" s="2" t="b">
         <v>1</v>
@@ -5855,13 +5868,13 @@
         <v>2013</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C326" s="2">
         <v>5</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F326" s="2" t="b">
         <v>1</v>
@@ -5872,13 +5885,13 @@
         <v>2013</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C327" s="2">
         <v>6</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F327" s="2" t="b">
         <v>1</v>
@@ -5889,13 +5902,13 @@
         <v>2013</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C328" s="2">
         <v>7</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F328" s="2" t="b">
         <v>0</v>
@@ -5906,13 +5919,13 @@
         <v>2013</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C329" s="2">
         <v>8</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F329" s="2" t="b">
         <v>0</v>
@@ -5923,13 +5936,13 @@
         <v>2013</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C330" s="2">
         <v>9</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F330" s="2" t="b">
         <v>0</v>
@@ -5940,7 +5953,7 @@
         <v>2013</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C331" s="2">
         <v>10</v>
@@ -5954,7 +5967,7 @@
         <v>2013</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C332" s="2">
         <v>11</v>
@@ -5968,7 +5981,7 @@
         <v>2013</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C333" s="2">
         <v>12</v>
@@ -5982,13 +5995,13 @@
         <v>2013</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C334" s="2">
         <v>13</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F334" s="2" t="b">
         <v>0</v>
@@ -5999,13 +6012,13 @@
         <v>2013</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C335" s="2">
         <v>14</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F335" s="2" t="b">
         <v>0</v>
@@ -6016,7 +6029,7 @@
         <v>2013</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C336" s="2">
         <v>15</v>
@@ -6030,7 +6043,7 @@
         <v>2013</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C337" s="2">
         <v>16</v>
@@ -6044,13 +6057,13 @@
         <v>2013</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C338" s="2">
         <v>1</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F338" s="2" t="b">
         <v>1</v>
@@ -6061,13 +6074,13 @@
         <v>2013</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C339" s="2">
         <v>2</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F339" s="2" t="b">
         <v>1</v>
@@ -6078,13 +6091,13 @@
         <v>2013</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C340" s="2">
         <v>3</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F340" s="2" t="b">
         <v>1</v>
@@ -6095,13 +6108,13 @@
         <v>2013</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C341" s="2">
         <v>4</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F341" s="2" t="b">
         <v>1</v>
@@ -6112,13 +6125,13 @@
         <v>2013</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C342" s="2">
         <v>5</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F342" s="2" t="b">
         <v>1</v>
@@ -6129,13 +6142,13 @@
         <v>2013</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C343" s="2">
         <v>6</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F343" s="2" t="b">
         <v>1</v>
@@ -6146,7 +6159,7 @@
         <v>2013</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C344" s="2">
         <v>7</v>
@@ -6160,13 +6173,13 @@
         <v>2013</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C345" s="2">
         <v>8</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F345" s="2" t="b">
         <v>0</v>
@@ -6177,7 +6190,7 @@
         <v>2013</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C346" s="2">
         <v>9</v>
@@ -6191,13 +6204,13 @@
         <v>2013</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C347" s="2">
         <v>10</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F347" s="2" t="b">
         <v>0</v>
@@ -6208,13 +6221,13 @@
         <v>2013</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C348" s="2">
         <v>11</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F348" s="2" t="b">
         <v>0</v>
@@ -6225,7 +6238,7 @@
         <v>2013</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C349" s="2">
         <v>12</v>
@@ -6239,7 +6252,7 @@
         <v>2013</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C350" s="2">
         <v>13</v>
@@ -6253,13 +6266,13 @@
         <v>2013</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C351" s="2">
         <v>14</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F351" s="2" t="b">
         <v>0</v>
@@ -6270,7 +6283,7 @@
         <v>2013</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C352" s="2">
         <v>15</v>
@@ -6284,7 +6297,7 @@
         <v>2013</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C353" s="2">
         <v>16</v>
@@ -6298,16 +6311,16 @@
         <v>2014</v>
       </c>
       <c r="B354" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C354" s="2">
+        <v>1</v>
+      </c>
+      <c r="D354" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C354" s="2">
-        <v>1</v>
-      </c>
-      <c r="D354" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E354" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F354" s="2" t="b">
         <v>1</v>
@@ -6318,13 +6331,13 @@
         <v>2014</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C355" s="2">
         <v>2</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F355" s="2" t="b">
         <v>1</v>
@@ -6335,16 +6348,16 @@
         <v>2014</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C356" s="2">
         <v>3</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F356" s="2" t="b">
         <v>1</v>
@@ -6355,13 +6368,13 @@
         <v>2014</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C357" s="2">
         <v>4</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F357" s="2" t="b">
         <v>1</v>
@@ -6372,13 +6385,13 @@
         <v>2014</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C358" s="2">
         <v>5</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F358" s="2" t="b">
         <v>1</v>
@@ -6389,13 +6402,13 @@
         <v>2014</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C359" s="2">
         <v>6</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F359" s="2" t="b">
         <v>1</v>
@@ -6406,13 +6419,13 @@
         <v>2014</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C360" s="2">
         <v>7</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F360" s="2" t="b">
         <v>0</v>
@@ -6423,13 +6436,13 @@
         <v>2014</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C361" s="2">
         <v>8</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F361" s="2" t="b">
         <v>0</v>
@@ -6440,13 +6453,13 @@
         <v>2014</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C362" s="2">
         <v>9</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F362" s="2" t="b">
         <v>0</v>
@@ -6457,7 +6470,7 @@
         <v>2014</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C363" s="2">
         <v>10</v>
@@ -6471,7 +6484,7 @@
         <v>2014</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C364" s="2">
         <v>11</v>
@@ -6485,7 +6498,7 @@
         <v>2014</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C365" s="2">
         <v>12</v>
@@ -6499,7 +6512,7 @@
         <v>2014</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C366" s="2">
         <v>13</v>
@@ -6513,13 +6526,13 @@
         <v>2014</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C367" s="2">
         <v>14</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F367" s="2" t="b">
         <v>0</v>
@@ -6530,7 +6543,7 @@
         <v>2014</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C368" s="2">
         <v>15</v>
@@ -6544,7 +6557,7 @@
         <v>2014</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C369" s="2">
         <v>16</v>
@@ -6558,16 +6571,16 @@
         <v>2014</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C370" s="2">
         <v>1</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F370" s="2" t="b">
         <v>1</v>
@@ -6578,16 +6591,16 @@
         <v>2014</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C371" s="2">
         <v>2</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F371" s="2" t="b">
         <v>1</v>
@@ -6598,13 +6611,13 @@
         <v>2014</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C372" s="2">
         <v>3</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F372" s="2" t="b">
         <v>1</v>
@@ -6615,13 +6628,13 @@
         <v>2014</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C373" s="2">
         <v>4</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F373" s="2" t="b">
         <v>1</v>
@@ -6632,16 +6645,16 @@
         <v>2014</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C374" s="2">
         <v>5</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F374" s="2" t="b">
         <v>1</v>
@@ -6652,13 +6665,13 @@
         <v>2014</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C375" s="2">
         <v>6</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F375" s="2" t="b">
         <v>1</v>
@@ -6669,7 +6682,7 @@
         <v>2014</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C376" s="2">
         <v>7</v>
@@ -6683,7 +6696,7 @@
         <v>2014</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C377" s="2">
         <v>8</v>
@@ -6697,13 +6710,13 @@
         <v>2014</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C378" s="2">
         <v>9</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F378" s="2" t="b">
         <v>0</v>
@@ -6714,7 +6727,7 @@
         <v>2014</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C379" s="2">
         <v>10</v>
@@ -6728,13 +6741,13 @@
         <v>2014</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C380" s="2">
         <v>11</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F380" s="2" t="b">
         <v>0</v>
@@ -6745,13 +6758,13 @@
         <v>2014</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C381" s="2">
         <v>12</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F381" s="2" t="b">
         <v>0</v>
@@ -6762,7 +6775,7 @@
         <v>2014</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C382" s="2">
         <v>13</v>
@@ -6776,7 +6789,7 @@
         <v>2014</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C383" s="2">
         <v>14</v>
@@ -6790,7 +6803,7 @@
         <v>2014</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C384" s="2">
         <v>15</v>
@@ -6804,7 +6817,7 @@
         <v>2014</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C385" s="2">
         <v>16</v>
@@ -6818,16 +6831,16 @@
         <v>2015</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C386" s="2">
         <v>1</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F386" s="2" t="b">
         <v>1</v>
@@ -6838,16 +6851,16 @@
         <v>2015</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C387" s="2">
         <v>2</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F387" s="2" t="b">
         <v>1</v>
@@ -6858,13 +6871,13 @@
         <v>2015</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C388" s="2">
         <v>3</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F388" s="2" t="b">
         <v>1</v>
@@ -6875,13 +6888,13 @@
         <v>2015</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C389" s="2">
         <v>4</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F389" s="2" t="b">
         <v>1</v>
@@ -6892,13 +6905,13 @@
         <v>2015</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C390" s="2">
         <v>5</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F390" s="2" t="b">
         <v>1</v>
@@ -6909,16 +6922,16 @@
         <v>2015</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C391" s="2">
         <v>6</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F391" s="2" t="b">
         <v>1</v>
@@ -6929,7 +6942,7 @@
         <v>2015</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C392" s="2">
         <v>7</v>
@@ -6943,13 +6956,13 @@
         <v>2015</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C393" s="2">
         <v>8</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F393" s="2" t="b">
         <v>0</v>
@@ -6960,7 +6973,7 @@
         <v>2015</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C394" s="2">
         <v>9</v>
@@ -6974,7 +6987,7 @@
         <v>2015</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C395" s="2">
         <v>10</v>
@@ -6988,7 +7001,7 @@
         <v>2015</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C396" s="2">
         <v>11</v>
@@ -7002,13 +7015,13 @@
         <v>2015</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C397" s="2">
         <v>12</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F397" s="2" t="b">
         <v>0</v>
@@ -7019,7 +7032,7 @@
         <v>2015</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C398" s="2">
         <v>13</v>
@@ -7033,7 +7046,7 @@
         <v>2015</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C399" s="2">
         <v>14</v>
@@ -7047,13 +7060,13 @@
         <v>2015</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C400" s="2">
         <v>15</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F400" s="2" t="b">
         <v>0</v>
@@ -7064,7 +7077,7 @@
         <v>2015</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C401" s="2">
         <v>16</v>
@@ -7078,13 +7091,13 @@
         <v>2015</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C402" s="2">
         <v>1</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F402" s="2" t="b">
         <v>1</v>
@@ -7095,13 +7108,13 @@
         <v>2015</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C403" s="2">
         <v>2</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F403" s="2" t="b">
         <v>1</v>
@@ -7112,13 +7125,13 @@
         <v>2015</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C404" s="2">
         <v>3</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F404" s="2" t="b">
         <v>1</v>
@@ -7129,13 +7142,13 @@
         <v>2015</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C405" s="2">
         <v>4</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F405" s="2" t="b">
         <v>1</v>
@@ -7146,16 +7159,16 @@
         <v>2015</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C406" s="2">
         <v>5</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F406" s="2" t="b">
         <v>1</v>
@@ -7166,13 +7179,13 @@
         <v>2015</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C407" s="2">
         <v>6</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F407" s="2" t="b">
         <v>1</v>
@@ -7183,7 +7196,7 @@
         <v>2015</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C408" s="2">
         <v>7</v>
@@ -7197,13 +7210,13 @@
         <v>2015</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C409" s="2">
         <v>8</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F409" s="2" t="b">
         <v>0</v>
@@ -7214,13 +7227,13 @@
         <v>2015</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C410" s="2">
         <v>9</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F410" s="2" t="b">
         <v>0</v>
@@ -7231,13 +7244,13 @@
         <v>2015</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C411" s="2">
         <v>10</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F411" s="2" t="b">
         <v>0</v>
@@ -7248,7 +7261,7 @@
         <v>2015</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C412" s="2">
         <v>11</v>
@@ -7262,13 +7275,13 @@
         <v>2015</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C413" s="2">
         <v>12</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F413" s="2" t="b">
         <v>0</v>
@@ -7279,13 +7292,13 @@
         <v>2015</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C414" s="2">
         <v>13</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F414" s="2" t="b">
         <v>0</v>
@@ -7296,7 +7309,7 @@
         <v>2015</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C415" s="2">
         <v>14</v>
@@ -7310,7 +7323,7 @@
         <v>2015</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C416" s="2">
         <v>15</v>
@@ -7324,7 +7337,7 @@
         <v>2015</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C417" s="2">
         <v>16</v>
@@ -7338,13 +7351,13 @@
         <v>2016</v>
       </c>
       <c r="B418" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C418" s="2">
+        <v>1</v>
+      </c>
+      <c r="D418" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C418" s="2">
-        <v>1</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F418" s="2" t="b">
         <v>1</v>
@@ -7355,16 +7368,16 @@
         <v>2016</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C419" s="2">
         <v>2</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F419" s="2" t="b">
         <v>1</v>
@@ -7375,13 +7388,13 @@
         <v>2016</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C420" s="2">
         <v>3</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F420" s="2" t="b">
         <v>1</v>
@@ -7392,16 +7405,16 @@
         <v>2016</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C421" s="2">
         <v>4</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F421" s="2" t="b">
         <v>1</v>
@@ -7412,13 +7425,13 @@
         <v>2016</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C422" s="2">
         <v>5</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F422" s="2" t="b">
         <v>1</v>
@@ -7429,13 +7442,13 @@
         <v>2016</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C423" s="2">
         <v>6</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F423" s="2" t="b">
         <v>1</v>
@@ -7446,13 +7459,13 @@
         <v>2016</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C424" s="2">
         <v>7</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F424" s="2" t="b">
         <v>0</v>
@@ -7463,7 +7476,7 @@
         <v>2016</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C425" s="2">
         <v>8</v>
@@ -7477,13 +7490,13 @@
         <v>2016</v>
       </c>
       <c r="B426" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C426" s="2">
+        <v>9</v>
+      </c>
+      <c r="E426" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C426" s="2">
-        <v>9</v>
-      </c>
-      <c r="E426" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F426" s="2" t="b">
         <v>0</v>
@@ -7494,7 +7507,7 @@
         <v>2016</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C427" s="2">
         <v>10</v>
@@ -7508,7 +7521,7 @@
         <v>2016</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C428" s="2">
         <v>11</v>
@@ -7522,7 +7535,7 @@
         <v>2016</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C429" s="2">
         <v>12</v>
@@ -7536,13 +7549,13 @@
         <v>2016</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C430" s="2">
         <v>13</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F430" s="2" t="b">
         <v>0</v>
@@ -7553,7 +7566,7 @@
         <v>2016</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C431" s="2">
         <v>14</v>
@@ -7567,7 +7580,7 @@
         <v>2016</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C432" s="2">
         <v>15</v>
@@ -7581,7 +7594,7 @@
         <v>2016</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C433" s="2">
         <v>16</v>
@@ -7595,13 +7608,13 @@
         <v>2016</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C434" s="2">
         <v>1</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F434" s="2" t="b">
         <v>1</v>
@@ -7612,13 +7625,13 @@
         <v>2016</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C435" s="2">
         <v>2</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F435" s="2" t="b">
         <v>1</v>
@@ -7629,13 +7642,13 @@
         <v>2016</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C436" s="2">
         <v>3</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F436" s="2" t="b">
         <v>1</v>
@@ -7646,13 +7659,13 @@
         <v>2016</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C437" s="2">
         <v>4</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F437" s="2" t="b">
         <v>1</v>
@@ -7663,13 +7676,13 @@
         <v>2016</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C438" s="2">
         <v>5</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F438" s="2" t="b">
         <v>1</v>
@@ -7680,16 +7693,16 @@
         <v>2016</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C439" s="2">
         <v>6</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F439" s="2" t="b">
         <v>1</v>
@@ -7700,7 +7713,7 @@
         <v>2016</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C440" s="2">
         <v>7</v>
@@ -7714,7 +7727,7 @@
         <v>2016</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C441" s="2">
         <v>8</v>
@@ -7728,7 +7741,7 @@
         <v>2016</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C442" s="2">
         <v>9</v>
@@ -7742,7 +7755,7 @@
         <v>2016</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C443" s="2">
         <v>10</v>
@@ -7756,13 +7769,13 @@
         <v>2016</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C444" s="2">
         <v>11</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F444" s="2" t="b">
         <v>0</v>
@@ -7773,7 +7786,7 @@
         <v>2016</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C445" s="2">
         <v>12</v>
@@ -7787,7 +7800,7 @@
         <v>2016</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C446" s="2">
         <v>13</v>
@@ -7801,7 +7814,7 @@
         <v>2016</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C447" s="2">
         <v>14</v>
@@ -7815,7 +7828,7 @@
         <v>2016</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C448" s="2">
         <v>15</v>
@@ -7829,7 +7842,7 @@
         <v>2016</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C449" s="2">
         <v>16</v>
@@ -7843,16 +7856,16 @@
         <v>2017</v>
       </c>
       <c r="B450" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C450" s="2">
+        <v>1</v>
+      </c>
+      <c r="D450" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C450" s="2">
-        <v>1</v>
-      </c>
-      <c r="D450" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E450" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F450" s="2" t="b">
         <v>1</v>
@@ -7863,13 +7876,13 @@
         <v>2017</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C451" s="2">
         <v>2</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F451" s="2" t="b">
         <v>1</v>
@@ -7880,16 +7893,16 @@
         <v>2017</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C452" s="2">
         <v>3</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F452" s="2" t="b">
         <v>1</v>
@@ -7900,13 +7913,13 @@
         <v>2017</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C453" s="2">
         <v>4</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F453" s="2" t="b">
         <v>1</v>
@@ -7917,16 +7930,16 @@
         <v>2017</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C454" s="2">
         <v>5</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F454" s="2" t="b">
         <v>1</v>
@@ -7937,16 +7950,16 @@
         <v>2017</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C455" s="2">
         <v>6</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F455" s="2" t="b">
         <v>1</v>
@@ -7957,13 +7970,13 @@
         <v>2017</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C456" s="2">
         <v>7</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F456" s="2" t="b">
         <v>0</v>
@@ -7974,7 +7987,7 @@
         <v>2017</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C457" s="2">
         <v>8</v>
@@ -7988,7 +8001,7 @@
         <v>2017</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C458" s="2">
         <v>9</v>
@@ -8002,13 +8015,13 @@
         <v>2017</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C459" s="2">
         <v>10</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F459" s="2" t="b">
         <v>0</v>
@@ -8019,7 +8032,7 @@
         <v>2017</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C460" s="2">
         <v>11</v>
@@ -8033,13 +8046,13 @@
         <v>2017</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C461" s="2">
         <v>12</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F461" s="2" t="b">
         <v>0</v>
@@ -8050,7 +8063,7 @@
         <v>2017</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C462" s="2">
         <v>13</v>
@@ -8064,13 +8077,13 @@
         <v>2017</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C463" s="2">
         <v>14</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F463" s="2" t="b">
         <v>0</v>
@@ -8081,7 +8094,7 @@
         <v>2017</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C464" s="2">
         <v>15</v>
@@ -8095,7 +8108,7 @@
         <v>2017</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C465" s="2">
         <v>16</v>
@@ -8109,16 +8122,16 @@
         <v>2017</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C466" s="2">
         <v>1</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F466" s="2" t="b">
         <v>1</v>
@@ -8129,13 +8142,13 @@
         <v>2017</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C467" s="2">
         <v>2</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F467" s="2" t="b">
         <v>1</v>
@@ -8146,16 +8159,16 @@
         <v>2017</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C468" s="2">
         <v>3</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F468" s="2" t="b">
         <v>1</v>
@@ -8166,16 +8179,16 @@
         <v>2017</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C469" s="2">
         <v>4</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F469" s="2" t="b">
         <v>1</v>
@@ -8186,13 +8199,13 @@
         <v>2017</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C470" s="2">
         <v>5</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F470" s="2" t="b">
         <v>1</v>
@@ -8203,13 +8216,13 @@
         <v>2017</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C471" s="2">
         <v>6</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F471" s="2" t="b">
         <v>1</v>
@@ -8220,13 +8233,13 @@
         <v>2017</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C472" s="2">
         <v>7</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F472" s="2" t="b">
         <v>0</v>
@@ -8237,13 +8250,13 @@
         <v>2017</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C473" s="2">
         <v>8</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F473" s="2" t="b">
         <v>0</v>
@@ -8254,7 +8267,7 @@
         <v>2017</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C474" s="2">
         <v>9</v>
@@ -8268,7 +8281,7 @@
         <v>2017</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C475" s="2">
         <v>10</v>
@@ -8282,13 +8295,13 @@
         <v>2017</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C476" s="2">
         <v>11</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F476" s="2" t="b">
         <v>0</v>
@@ -8299,7 +8312,7 @@
         <v>2017</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C477" s="2">
         <v>12</v>
@@ -8313,7 +8326,7 @@
         <v>2017</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C478" s="2">
         <v>13</v>
@@ -8327,13 +8340,13 @@
         <v>2017</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C479" s="2">
         <v>14</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F479" s="2" t="b">
         <v>0</v>
@@ -8344,7 +8357,7 @@
         <v>2017</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C480" s="2">
         <v>15</v>
@@ -8358,7 +8371,7 @@
         <v>2017</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C481" s="2">
         <v>16</v>
@@ -8372,16 +8385,16 @@
         <v>2018</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C482" s="2">
         <v>1</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F482" s="2" t="b">
         <v>1</v>
@@ -8392,16 +8405,16 @@
         <v>2018</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C483" s="2">
         <v>2</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F483" s="2" t="b">
         <v>1</v>
@@ -8412,13 +8425,13 @@
         <v>2018</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C484" s="2">
         <v>3</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F484" s="2" t="b">
         <v>1</v>
@@ -8429,13 +8442,13 @@
         <v>2018</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C485" s="2">
         <v>4</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F485" s="2" t="b">
         <v>1</v>
@@ -8446,13 +8459,13 @@
         <v>2018</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C486" s="2">
         <v>5</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F486" s="2" t="b">
         <v>1</v>
@@ -8463,13 +8476,13 @@
         <v>2018</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C487" s="2">
         <v>6</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F487" s="2" t="b">
         <v>1</v>
@@ -8480,7 +8493,7 @@
         <v>2018</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C488" s="2">
         <v>7</v>
@@ -8494,7 +8507,7 @@
         <v>2018</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C489" s="2">
         <v>8</v>
@@ -8508,7 +8521,7 @@
         <v>2018</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C490" s="2">
         <v>9</v>
@@ -8522,7 +8535,7 @@
         <v>2018</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C491" s="2">
         <v>10</v>
@@ -8536,13 +8549,13 @@
         <v>2018</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C492" s="2">
         <v>11</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F492" s="2" t="b">
         <v>0</v>
@@ -8553,13 +8566,13 @@
         <v>2018</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C493" s="2">
         <v>12</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F493" s="2" t="b">
         <v>0</v>
@@ -8570,7 +8583,7 @@
         <v>2018</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C494" s="2">
         <v>13</v>
@@ -8584,7 +8597,7 @@
         <v>2018</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C495" s="2">
         <v>14</v>
@@ -8598,13 +8611,13 @@
         <v>2018</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C496" s="2">
         <v>15</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F496" s="2" t="b">
         <v>0</v>
@@ -8615,7 +8628,7 @@
         <v>2018</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C497" s="2">
         <v>16</v>
@@ -8629,16 +8642,16 @@
         <v>2018</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C498" s="2">
         <v>1</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F498" s="2" t="b">
         <v>1</v>
@@ -8649,13 +8662,13 @@
         <v>2018</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C499" s="2">
         <v>2</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F499" s="2" t="b">
         <v>1</v>
@@ -8666,13 +8679,13 @@
         <v>2018</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C500" s="2">
         <v>3</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F500" s="2" t="b">
         <v>1</v>
@@ -8683,13 +8696,13 @@
         <v>2018</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C501" s="2">
         <v>4</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F501" s="2" t="b">
         <v>1</v>
@@ -8700,13 +8713,13 @@
         <v>2018</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C502" s="2">
         <v>5</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F502" s="2" t="b">
         <v>1</v>
@@ -8717,13 +8730,13 @@
         <v>2018</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C503" s="2">
         <v>6</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F503" s="2" t="b">
         <v>1</v>
@@ -8734,7 +8747,7 @@
         <v>2018</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C504" s="2">
         <v>7</v>
@@ -8748,13 +8761,13 @@
         <v>2018</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C505" s="2">
         <v>8</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F505" s="2" t="b">
         <v>0</v>
@@ -8765,13 +8778,13 @@
         <v>2018</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C506" s="2">
         <v>9</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F506" s="2" t="b">
         <v>0</v>
@@ -8782,7 +8795,7 @@
         <v>2018</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C507" s="2">
         <v>10</v>
@@ -8796,7 +8809,7 @@
         <v>2018</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C508" s="2">
         <v>11</v>
@@ -8810,7 +8823,7 @@
         <v>2018</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C509" s="2">
         <v>12</v>
@@ -8824,13 +8837,13 @@
         <v>2018</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C510" s="2">
         <v>13</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F510" s="2" t="b">
         <v>0</v>
@@ -8841,7 +8854,7 @@
         <v>2018</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C511" s="2">
         <v>14</v>
@@ -8855,7 +8868,7 @@
         <v>2018</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C512" s="2">
         <v>15</v>
@@ -8869,7 +8882,7 @@
         <v>2018</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C513" s="2">
         <v>16</v>
@@ -8883,13 +8896,13 @@
         <v>2019</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C514" s="2">
         <v>1</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F514" s="2" t="b">
         <v>1</v>
@@ -8900,16 +8913,16 @@
         <v>2019</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C515" s="2">
         <v>2</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F515" s="2" t="b">
         <v>1</v>
@@ -8920,13 +8933,13 @@
         <v>2019</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C516" s="2">
         <v>3</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F516" s="2" t="b">
         <v>1</v>
@@ -8937,13 +8950,13 @@
         <v>2019</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C517" s="2">
         <v>4</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F517" s="2" t="b">
         <v>1</v>
@@ -8954,13 +8967,13 @@
         <v>2019</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C518" s="2">
         <v>5</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F518" s="2" t="b">
         <v>1</v>
@@ -8971,13 +8984,13 @@
         <v>2019</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C519" s="2">
         <v>6</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F519" s="2" t="b">
         <v>1</v>
@@ -8988,7 +9001,7 @@
         <v>2019</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C520" s="2">
         <v>7</v>
@@ -9002,13 +9015,13 @@
         <v>2019</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C521" s="2">
         <v>8</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F521" s="2" t="b">
         <v>0</v>
@@ -9019,13 +9032,13 @@
         <v>2019</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C522" s="2">
         <v>9</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F522" s="2" t="b">
         <v>0</v>
@@ -9036,13 +9049,13 @@
         <v>2019</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C523" s="2">
         <v>10</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F523" s="2" t="b">
         <v>0</v>
@@ -9053,7 +9066,7 @@
         <v>2019</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C524" s="2">
         <v>11</v>
@@ -9067,13 +9080,13 @@
         <v>2019</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C525" s="2">
         <v>12</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F525" s="2" t="b">
         <v>0</v>
@@ -9084,7 +9097,7 @@
         <v>2019</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C526" s="2">
         <v>13</v>
@@ -9098,13 +9111,13 @@
         <v>2019</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C527" s="2">
         <v>14</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F527" s="2" t="b">
         <v>0</v>
@@ -9115,7 +9128,7 @@
         <v>2019</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C528" s="2">
         <v>15</v>
@@ -9129,7 +9142,7 @@
         <v>2019</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C529" s="2">
         <v>16</v>
@@ -9143,16 +9156,16 @@
         <v>2019</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C530" s="2">
         <v>1</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F530" s="2" t="b">
         <v>1</v>
@@ -9163,16 +9176,16 @@
         <v>2019</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C531" s="2">
         <v>2</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F531" s="2" t="b">
         <v>1</v>
@@ -9183,13 +9196,13 @@
         <v>2019</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C532" s="2">
         <v>3</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F532" s="2" t="b">
         <v>1</v>
@@ -9200,13 +9213,13 @@
         <v>2019</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C533" s="2">
         <v>4</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F533" s="2" t="b">
         <v>1</v>
@@ -9217,13 +9230,13 @@
         <v>2019</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C534" s="2">
         <v>5</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F534" s="2" t="b">
         <v>1</v>
@@ -9234,13 +9247,13 @@
         <v>2019</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C535" s="2">
         <v>6</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F535" s="2" t="b">
         <v>1</v>
@@ -9251,7 +9264,7 @@
         <v>2019</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C536" s="2">
         <v>7</v>
@@ -9265,13 +9278,13 @@
         <v>2019</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C537" s="2">
         <v>8</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F537" s="2" t="b">
         <v>0</v>
@@ -9282,7 +9295,7 @@
         <v>2019</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C538" s="2">
         <v>9</v>
@@ -9296,13 +9309,13 @@
         <v>2019</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C539" s="2">
         <v>10</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F539" s="2" t="b">
         <v>0</v>
@@ -9313,7 +9326,7 @@
         <v>2019</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C540" s="2">
         <v>11</v>
@@ -9327,7 +9340,7 @@
         <v>2019</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C541" s="2">
         <v>12</v>
@@ -9341,7 +9354,7 @@
         <v>2019</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C542" s="2">
         <v>13</v>
@@ -9355,7 +9368,7 @@
         <v>2019</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C543" s="2">
         <v>14</v>
@@ -9369,7 +9382,7 @@
         <v>2019</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C544" s="2">
         <v>15</v>
@@ -9383,7 +9396,7 @@
         <v>2019</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C545" s="2">
         <v>16</v>
@@ -9397,13 +9410,13 @@
         <v>2020</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C546" s="2">
         <v>1</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F546" s="2" t="b">
         <v>1</v>
@@ -9414,13 +9427,13 @@
         <v>2020</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C547" s="2">
         <v>2</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F547" s="2" t="b">
         <v>1</v>
@@ -9431,13 +9444,13 @@
         <v>2020</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C548" s="2">
         <v>3</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F548" s="2" t="b">
         <v>1</v>
@@ -9448,16 +9461,16 @@
         <v>2020</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C549" s="2">
         <v>4</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F549" s="2" t="b">
         <v>1</v>
@@ -9468,16 +9481,16 @@
         <v>2020</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C550" s="2">
         <v>5</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F550" s="2" t="b">
         <v>1</v>
@@ -9488,16 +9501,16 @@
         <v>2020</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C551" s="2">
         <v>6</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F551" s="2" t="b">
         <v>1</v>
@@ -9508,13 +9521,13 @@
         <v>2020</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C552" s="2">
         <v>7</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F552" s="2" t="b">
         <v>1</v>
@@ -9525,7 +9538,7 @@
         <v>2020</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C553" s="2">
         <v>8</v>
@@ -9539,7 +9552,7 @@
         <v>2020</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C554" s="2">
         <v>9</v>
@@ -9553,13 +9566,13 @@
         <v>2020</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C555" s="2">
         <v>10</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F555" s="2" t="b">
         <v>0</v>
@@ -9570,7 +9583,7 @@
         <v>2020</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C556" s="2">
         <v>11</v>
@@ -9584,7 +9597,7 @@
         <v>2020</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C557" s="2">
         <v>12</v>
@@ -9598,7 +9611,7 @@
         <v>2020</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C558" s="2">
         <v>13</v>
@@ -9612,7 +9625,7 @@
         <v>2020</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C559" s="2">
         <v>14</v>
@@ -9626,7 +9639,7 @@
         <v>2020</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C560" s="2">
         <v>15</v>
@@ -9640,7 +9653,7 @@
         <v>2020</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C561" s="2">
         <v>16</v>
@@ -9654,13 +9667,13 @@
         <v>2020</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C562" s="2">
         <v>1</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F562" s="2" t="b">
         <v>1</v>
@@ -9671,16 +9684,16 @@
         <v>2020</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C563" s="2">
         <v>2</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F563" s="2" t="b">
         <v>1</v>
@@ -9691,13 +9704,13 @@
         <v>2020</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C564" s="2">
         <v>3</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F564" s="2" t="b">
         <v>1</v>
@@ -9708,13 +9721,13 @@
         <v>2020</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C565" s="2">
         <v>4</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F565" s="2" t="b">
         <v>1</v>
@@ -9725,13 +9738,13 @@
         <v>2020</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C566" s="2">
         <v>5</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F566" s="2" t="b">
         <v>1</v>
@@ -9742,13 +9755,13 @@
         <v>2020</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C567" s="2">
         <v>6</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F567" s="2" t="b">
         <v>1</v>
@@ -9759,16 +9772,16 @@
         <v>2020</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C568" s="2">
         <v>7</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F568" s="2" t="b">
         <v>1</v>
@@ -9779,7 +9792,7 @@
         <v>2020</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C569" s="2">
         <v>8</v>
@@ -9793,7 +9806,7 @@
         <v>2020</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C570" s="2">
         <v>9</v>
@@ -9807,13 +9820,13 @@
         <v>2020</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C571" s="2">
         <v>10</v>
       </c>
       <c r="E571" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F571" s="2" t="b">
         <v>0</v>
@@ -9824,13 +9837,13 @@
         <v>2020</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C572" s="2">
         <v>11</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F572" s="2" t="b">
         <v>0</v>
@@ -9841,7 +9854,7 @@
         <v>2020</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C573" s="2">
         <v>12</v>
@@ -9855,13 +9868,13 @@
         <v>2020</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C574" s="2">
         <v>13</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F574" s="2" t="b">
         <v>0</v>
@@ -9872,7 +9885,7 @@
         <v>2020</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C575" s="2">
         <v>14</v>
@@ -9886,7 +9899,7 @@
         <v>2020</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C576" s="2">
         <v>15</v>
@@ -9900,7 +9913,7 @@
         <v>2020</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C577" s="2">
         <v>16</v>
@@ -9914,16 +9927,16 @@
         <v>2021</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C578" s="2">
         <v>1</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F578" s="2" t="b">
         <v>1</v>
@@ -9934,13 +9947,13 @@
         <v>2021</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C579" s="2">
         <v>2</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F579" s="2" t="b">
         <v>1</v>
@@ -9951,13 +9964,13 @@
         <v>2021</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C580" s="2">
         <v>3</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F580" s="2" t="b">
         <v>1</v>
@@ -9968,13 +9981,13 @@
         <v>2021</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C581" s="2">
         <v>4</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F581" s="2" t="b">
         <v>1</v>
@@ -9985,16 +9998,16 @@
         <v>2021</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C582" s="2">
         <v>5</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E582" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F582" s="2" t="b">
         <v>1</v>
@@ -10005,13 +10018,13 @@
         <v>2021</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C583" s="2">
         <v>6</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F583" s="2" t="b">
         <v>1</v>
@@ -10022,13 +10035,13 @@
         <v>2021</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C584" s="2">
         <v>7</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F584" s="2" t="b">
         <v>1</v>
@@ -10039,13 +10052,13 @@
         <v>2021</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C585" s="2">
         <v>8</v>
       </c>
       <c r="E585" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F585" s="2" t="b">
         <v>0</v>
@@ -10056,13 +10069,13 @@
         <v>2021</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C586" s="2">
         <v>9</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F586" s="2" t="b">
         <v>0</v>
@@ -10073,7 +10086,7 @@
         <v>2021</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C587" s="2">
         <v>10</v>
@@ -10087,13 +10100,13 @@
         <v>2021</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C588" s="2">
         <v>11</v>
       </c>
       <c r="E588" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F588" s="2" t="b">
         <v>0</v>
@@ -10104,7 +10117,7 @@
         <v>2021</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C589" s="2">
         <v>12</v>
@@ -10118,7 +10131,7 @@
         <v>2021</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C590" s="2">
         <v>13</v>
@@ -10132,13 +10145,13 @@
         <v>2021</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C591" s="2">
         <v>14</v>
       </c>
       <c r="E591" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F591" s="2" t="b">
         <v>0</v>
@@ -10149,7 +10162,7 @@
         <v>2021</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C592" s="2">
         <v>15</v>
@@ -10163,7 +10176,7 @@
         <v>2021</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C593" s="2">
         <v>16</v>
@@ -10177,16 +10190,16 @@
         <v>2021</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C594" s="2">
         <v>1</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E594" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F594" s="2" t="b">
         <v>1</v>
@@ -10197,13 +10210,13 @@
         <v>2021</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C595" s="2">
         <v>2</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F595" s="2" t="b">
         <v>1</v>
@@ -10214,16 +10227,16 @@
         <v>2021</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C596" s="2">
         <v>3</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E596" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F596" s="2" t="b">
         <v>1</v>
@@ -10234,13 +10247,13 @@
         <v>2021</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C597" s="2">
         <v>4</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F597" s="2" t="b">
         <v>1</v>
@@ -10251,13 +10264,13 @@
         <v>2021</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C598" s="2">
         <v>5</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F598" s="2" t="b">
         <v>1</v>
@@ -10268,13 +10281,13 @@
         <v>2021</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C599" s="2">
         <v>6</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F599" s="2" t="b">
         <v>1</v>
@@ -10285,16 +10298,16 @@
         <v>2021</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C600" s="2">
         <v>7</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E600" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F600" s="2" t="b">
         <v>1</v>
@@ -10305,7 +10318,7 @@
         <v>2021</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C601" s="2">
         <v>8</v>
@@ -10319,7 +10332,7 @@
         <v>2021</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C602" s="2">
         <v>9</v>
@@ -10333,13 +10346,13 @@
         <v>2021</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C603" s="2">
         <v>10</v>
       </c>
       <c r="E603" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F603" s="2" t="b">
         <v>0</v>
@@ -10350,13 +10363,13 @@
         <v>2021</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C604" s="2">
         <v>11</v>
       </c>
       <c r="E604" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F604" s="2" t="b">
         <v>0</v>
@@ -10367,7 +10380,7 @@
         <v>2021</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C605" s="2">
         <v>12</v>
@@ -10381,7 +10394,7 @@
         <v>2021</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C606" s="2">
         <v>13</v>
@@ -10395,7 +10408,7 @@
         <v>2021</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C607" s="2">
         <v>14</v>
@@ -10409,7 +10422,7 @@
         <v>2021</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C608" s="2">
         <v>15</v>
@@ -10423,7 +10436,7 @@
         <v>2021</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C609" s="2">
         <v>16</v>
@@ -10437,13 +10450,13 @@
         <v>2022</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C610" s="2">
         <v>1</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F610" s="2" t="b">
         <v>1</v>
@@ -10454,13 +10467,13 @@
         <v>2022</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C611" s="2">
         <v>2</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F611" s="2" t="b">
         <v>1</v>
@@ -10471,13 +10484,13 @@
         <v>2022</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C612" s="2">
         <v>3</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F612" s="2" t="b">
         <v>1</v>
@@ -10488,13 +10501,13 @@
         <v>2022</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C613" s="2">
         <v>4</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F613" s="2" t="b">
         <v>1</v>
@@ -10505,16 +10518,16 @@
         <v>2022</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C614" s="2">
         <v>5</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E614" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F614" s="2" t="b">
         <v>1</v>
@@ -10525,13 +10538,13 @@
         <v>2022</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C615" s="2">
         <v>6</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F615" s="2" t="b">
         <v>1</v>
@@ -10542,16 +10555,16 @@
         <v>2022</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C616" s="2">
         <v>7</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E616" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F616" s="2" t="b">
         <v>1</v>
@@ -10562,7 +10575,7 @@
         <v>2022</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C617" s="2">
         <v>8</v>
@@ -10576,7 +10589,7 @@
         <v>2022</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C618" s="2">
         <v>9</v>
@@ -10590,13 +10603,13 @@
         <v>2022</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C619" s="2">
         <v>10</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F619" s="2" t="b">
         <v>0</v>
@@ -10607,13 +10620,13 @@
         <v>2022</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C620" s="2">
         <v>11</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F620" s="2" t="b">
         <v>0</v>
@@ -10624,7 +10637,7 @@
         <v>2022</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C621" s="2">
         <v>12</v>
@@ -10638,7 +10651,7 @@
         <v>2022</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C622" s="2">
         <v>13</v>
@@ -10652,7 +10665,7 @@
         <v>2022</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C623" s="2">
         <v>14</v>
@@ -10666,7 +10679,7 @@
         <v>2022</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C624" s="2">
         <v>15</v>
@@ -10680,7 +10693,7 @@
         <v>2022</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C625" s="2">
         <v>16</v>
@@ -10694,13 +10707,13 @@
         <v>2022</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C626" s="2">
         <v>1</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F626" s="2" t="b">
         <v>1</v>
@@ -10711,16 +10724,16 @@
         <v>2022</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C627" s="2">
         <v>2</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E627" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F627" s="2" t="b">
         <v>1</v>
@@ -10731,13 +10744,13 @@
         <v>2022</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C628" s="2">
         <v>3</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F628" s="2" t="b">
         <v>1</v>
@@ -10748,13 +10761,13 @@
         <v>2022</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C629" s="2">
         <v>4</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F629" s="2" t="b">
         <v>1</v>
@@ -10765,13 +10778,13 @@
         <v>2022</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C630" s="2">
         <v>5</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F630" s="2" t="b">
         <v>1</v>
@@ -10782,13 +10795,13 @@
         <v>2022</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C631" s="2">
         <v>6</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F631" s="2" t="b">
         <v>1</v>
@@ -10799,16 +10812,16 @@
         <v>2022</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C632" s="2">
         <v>7</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E632" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F632" s="2" t="b">
         <v>1</v>
@@ -10819,7 +10832,7 @@
         <v>2022</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C633" s="2">
         <v>8</v>
@@ -10833,7 +10846,7 @@
         <v>2022</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C634" s="2">
         <v>9</v>
@@ -10847,7 +10860,7 @@
         <v>2022</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C635" s="2">
         <v>10</v>
@@ -10861,13 +10874,13 @@
         <v>2022</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C636" s="2">
         <v>11</v>
       </c>
       <c r="E636" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F636" s="2" t="b">
         <v>0</v>
@@ -10878,13 +10891,13 @@
         <v>2022</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C637" s="2">
         <v>12</v>
       </c>
       <c r="E637" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F637" s="2" t="b">
         <v>0</v>
@@ -10895,7 +10908,7 @@
         <v>2022</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C638" s="2">
         <v>13</v>
@@ -10909,7 +10922,7 @@
         <v>2022</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C639" s="2">
         <v>14</v>
@@ -10923,7 +10936,7 @@
         <v>2022</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C640" s="2">
         <v>15</v>
@@ -10937,7 +10950,7 @@
         <v>2022</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C641" s="2">
         <v>16</v>
@@ -10951,16 +10964,16 @@
         <v>2023</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C642" s="2">
         <v>1</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E642" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F642" s="2" t="b">
         <v>1</v>
@@ -10971,13 +10984,13 @@
         <v>2023</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C643" s="2">
         <v>2</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F643" s="2" t="b">
         <v>1</v>
@@ -10988,13 +11001,13 @@
         <v>2023</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C644" s="2">
         <v>3</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F644" s="2" t="b">
         <v>1</v>
@@ -11005,13 +11018,13 @@
         <v>2023</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C645" s="2">
         <v>4</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F645" s="2" t="b">
         <v>1</v>
@@ -11022,16 +11035,16 @@
         <v>2023</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C646" s="2">
         <v>5</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E646" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F646" s="2" t="b">
         <v>1</v>
@@ -11042,16 +11055,16 @@
         <v>2023</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C647" s="2">
         <v>6</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E647" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F647" s="2" t="b">
         <v>1</v>
@@ -11062,13 +11075,13 @@
         <v>2023</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C648" s="2">
         <v>7</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F648" s="2" t="b">
         <v>1</v>
@@ -11079,7 +11092,7 @@
         <v>2023</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C649" s="2">
         <v>8</v>
@@ -11093,7 +11106,7 @@
         <v>2023</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C650" s="2">
         <v>9</v>
@@ -11107,7 +11120,7 @@
         <v>2023</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C651" s="2">
         <v>10</v>
@@ -11121,13 +11134,13 @@
         <v>2023</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C652" s="2">
         <v>11</v>
       </c>
       <c r="E652" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F652" s="2" t="b">
         <v>0</v>
@@ -11138,7 +11151,7 @@
         <v>2023</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C653" s="2">
         <v>12</v>
@@ -11152,7 +11165,7 @@
         <v>2023</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C654" s="2">
         <v>13</v>
@@ -11166,13 +11179,13 @@
         <v>2023</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C655" s="2">
         <v>14</v>
       </c>
       <c r="E655" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F655" s="2" t="b">
         <v>0</v>
@@ -11183,7 +11196,7 @@
         <v>2023</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C656" s="2">
         <v>15</v>
@@ -11197,7 +11210,7 @@
         <v>2023</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C657" s="2">
         <v>16</v>
@@ -11211,13 +11224,13 @@
         <v>2023</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C658" s="2">
         <v>1</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F658" s="2" t="b">
         <v>1</v>
@@ -11228,13 +11241,13 @@
         <v>2023</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C659" s="2">
         <v>2</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F659" s="2" t="b">
         <v>1</v>
@@ -11245,16 +11258,16 @@
         <v>2023</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C660" s="2">
         <v>3</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E660" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F660" s="2" t="b">
         <v>1</v>
@@ -11265,13 +11278,13 @@
         <v>2023</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C661" s="2">
         <v>4</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F661" s="2" t="b">
         <v>1</v>
@@ -11282,16 +11295,16 @@
         <v>2023</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C662" s="2">
         <v>5</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E662" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F662" s="2" t="b">
         <v>1</v>
@@ -11302,13 +11315,13 @@
         <v>2023</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C663" s="2">
         <v>6</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F663" s="2" t="b">
         <v>1</v>
@@ -11319,13 +11332,13 @@
         <v>2023</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C664" s="2">
         <v>7</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="F664" s="2" t="b">
         <v>1</v>
@@ -11336,13 +11349,13 @@
         <v>2023</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C665" s="2">
         <v>8</v>
       </c>
       <c r="E665" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F665" s="2" t="b">
         <v>0</v>
@@ -11353,7 +11366,7 @@
         <v>2023</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C666" s="2">
         <v>9</v>
@@ -11367,13 +11380,13 @@
         <v>2023</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C667" s="2">
         <v>10</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F667" s="2" t="b">
         <v>0</v>
@@ -11384,7 +11397,7 @@
         <v>2023</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C668" s="2">
         <v>11</v>
@@ -11398,7 +11411,7 @@
         <v>2023</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C669" s="2">
         <v>12</v>
@@ -11412,13 +11425,13 @@
         <v>2023</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C670" s="2">
         <v>13</v>
       </c>
       <c r="E670" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F670" s="2" t="b">
         <v>0</v>
@@ -11429,7 +11442,7 @@
         <v>2023</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C671" s="2">
         <v>14</v>
@@ -11443,7 +11456,7 @@
         <v>2023</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C672" s="2">
         <v>15</v>
@@ -11457,7 +11470,7 @@
         <v>2023</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C673" s="2">
         <v>16</v>
